--- a/result/year/year_description.xlsx
+++ b/result/year/year_description.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,12 +451,32 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>2609</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>2610</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>2612</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>2642</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>5607</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Y9999</t>
         </is>
       </c>
     </row>
@@ -476,10 +496,22 @@
         <v>0.02053347262769173</v>
       </c>
       <c r="E2" t="n">
+        <v>-0.03497643712015212</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-0.01350481502009209</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-0.06197117633557294</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.0311446627949065</v>
       </c>
-      <c r="F2" t="n">
+      <c r="I2" t="n">
         <v>-0.01554422981297792</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-0.04607742854083378</v>
       </c>
     </row>
     <row r="3">
@@ -498,10 +530,22 @@
         <v>0.04015257695876484</v>
       </c>
       <c r="E3" t="n">
+        <v>0.09649782839998089</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.05741090721333908</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-0.05064373281875456</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.1440393702229379</v>
       </c>
-      <c r="F3" t="n">
+      <c r="I3" t="n">
         <v>-0.07156128147340945</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-0.08500075419777708</v>
       </c>
     </row>
     <row r="4">
@@ -520,10 +564,22 @@
         <v>0.3538881704016399</v>
       </c>
       <c r="E4" t="n">
+        <v>0.6900597526307137</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.4050106927418589</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.4182465204610648</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.4053540805913488</v>
       </c>
-      <c r="F4" t="n">
+      <c r="I4" t="n">
         <v>0.3962830723066155</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.2422320488353429</v>
       </c>
     </row>
     <row r="5">
@@ -542,10 +598,22 @@
         <v>0.1252368371502202</v>
       </c>
       <c r="E5" t="n">
+        <v>0.4761824622007618</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.1640336612352405</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.1749301518777879</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.1643119306520577</v>
       </c>
-      <c r="F5" t="n">
+      <c r="I5" t="n">
         <v>0.1570402733967702</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.05867636548296792</v>
       </c>
     </row>
     <row r="6">
@@ -564,10 +632,22 @@
         <v>1.528126495690524</v>
       </c>
       <c r="E6" t="n">
+        <v>-0.1227471921488128</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.2895966753333115</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-0.4990566429584429</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.2128107389157146</v>
       </c>
-      <c r="F6" t="n">
+      <c r="I6" t="n">
         <v>1.121139543396018</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2.994546697966668</v>
       </c>
     </row>
     <row r="7">
@@ -586,10 +666,22 @@
         <v>-0.484540724928288</v>
       </c>
       <c r="E7" t="n">
+        <v>-0.725640513194897</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-0.4401949919887884</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-0.3014252533414803</v>
+      </c>
+      <c r="H7" t="n">
         <v>-0.7672397371605036</v>
       </c>
-      <c r="F7" t="n">
+      <c r="I7" t="n">
         <v>0.6531802323120326</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.7837892644370694</v>
       </c>
     </row>
     <row r="8">
@@ -608,10 +700,22 @@
         <v>-1.020890501964672</v>
       </c>
       <c r="E8" t="n">
+        <v>-1.419910971918876</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-0.8269378756622596</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-0.8408927143899434</v>
+      </c>
+      <c r="H8" t="n">
         <v>-0.7474462321314799</v>
       </c>
-      <c r="F8" t="n">
+      <c r="I8" t="n">
         <v>-0.8192984658868454</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-0.5785373180407554</v>
       </c>
     </row>
     <row r="9">
@@ -630,10 +734,22 @@
         <v>0.7892910411128478</v>
       </c>
       <c r="E9" t="n">
+        <v>0.9103324222905247</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.6701576623352468</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.6032570682249601</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.5571238853252436</v>
       </c>
-      <c r="F9" t="n">
+      <c r="I9" t="n">
         <v>0.9444616088408515</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.6166589302677998</v>
       </c>
     </row>
     <row r="10">
@@ -652,10 +768,22 @@
         <v>0.6570711240861353</v>
       </c>
       <c r="E10" t="n">
+        <v>-0.6645523052828903</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-0.2565914853817497</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-1.177452350375886</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.2803019651541585</v>
       </c>
-      <c r="F10" t="n">
+      <c r="I10" t="n">
         <v>-0.3575172856984921</v>
+      </c>
+      <c r="J10" t="n">
+        <v>-0.8754711422758419</v>
       </c>
     </row>
     <row r="11">
@@ -674,10 +802,22 @@
         <v>32</v>
       </c>
       <c r="E11" t="n">
+        <v>19</v>
+      </c>
+      <c r="F11" t="n">
+        <v>19</v>
+      </c>
+      <c r="G11" t="n">
+        <v>19</v>
+      </c>
+      <c r="H11" t="n">
         <v>9</v>
       </c>
-      <c r="F11" t="n">
+      <c r="I11" t="n">
         <v>23</v>
+      </c>
+      <c r="J11" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="12">
@@ -696,10 +836,22 @@
         <v>-0.1590532635998276</v>
       </c>
       <c r="E12" t="n">
+        <v>-0.2389410624164154</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-0.2530504865082592</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-0.2832904528526308</v>
+      </c>
+      <c r="H12" t="n">
         <v>-0.1527124514763667</v>
       </c>
-      <c r="F12" t="n">
+      <c r="I12" t="n">
         <v>-0.2667825553677401</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-0.1589179744046971</v>
       </c>
     </row>
     <row r="13">
@@ -718,10 +870,22 @@
         <v>0.210452299993577</v>
       </c>
       <c r="E13" t="n">
+        <v>0.4746736402492467</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.1916340761910056</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.219325201323473</v>
+      </c>
+      <c r="H13" t="n">
         <v>0.2981065897876651</v>
       </c>
-      <c r="F13" t="n">
+      <c r="I13" t="n">
         <v>0.1850949592381046</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.02427022864907791</v>
       </c>
     </row>
   </sheetData>
